--- a/Table/Npc.xlsx
+++ b/Table/Npc.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>描述</t>
   </si>
@@ -281,6 +281,18 @@
   <si>
     <t>meizi</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,7 +409,63 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -712,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,7 +796,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,8 +818,11 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,8 +844,11 @@
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +870,11 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -819,8 +896,11 @@
       <c r="G4" s="1">
         <v>10001</v>
       </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -842,8 +922,11 @@
       <c r="G5" s="1">
         <v>10010</v>
       </c>
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -864,18 +947,26 @@
       </c>
       <c r="G6" s="1">
         <v>10020</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1:E4 F1:G6">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+    <cfRule type="containsBlanks" dxfId="9" priority="5">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E6">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(B5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H6">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Npc.xlsx
+++ b/Table/Npc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="-150" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="11400" yWindow="105" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能ID，到技能表中查询</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能ID，到技能表中查询</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>描述</t>
   </si>
@@ -203,10 +231,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -292,6 +316,26 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -409,42 +453,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -780,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,9 +803,10 @@
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,13 +826,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,56 +855,68 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>10001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -897,24 +925,30 @@
         <v>10001</v>
       </c>
       <c r="H4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="J4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>10010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -923,24 +957,30 @@
         <v>10010</v>
       </c>
       <c r="H5" s="1">
+        <v>10010</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10010</v>
+      </c>
+      <c r="J5" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>10020</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>1.5</v>
@@ -949,24 +989,30 @@
         <v>10020</v>
       </c>
       <c r="H6" s="1">
+        <v>10021</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10022</v>
+      </c>
+      <c r="J6" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B1:E4 F1:G6">
-    <cfRule type="containsBlanks" dxfId="9" priority="5">
+  <conditionalFormatting sqref="B1:E4 F1:I6">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E6">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H6">
+  <conditionalFormatting sqref="J1:J6">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(H1))=0</formula>
+      <formula>LEN(TRIM(J1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Npc.xlsx
+++ b/Table/Npc.xlsx
@@ -166,12 +166,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>AI 搜索敌人时，搜索己方、敌方
+1 敌方
+2 友方
+3 敌方|友方</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>描述</t>
   </si>
@@ -336,6 +353,18 @@
   </si>
   <si>
     <t>skillID2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +482,49 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -789,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,13 +871,16 @@
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +911,11 @@
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,8 +946,11 @@
       <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -901,8 +981,11 @@
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -933,8 +1016,11 @@
       <c r="J4" s="1">
         <v>50</v>
       </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -965,8 +1051,11 @@
       <c r="J5" s="1">
         <v>50</v>
       </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -996,23 +1085,31 @@
       </c>
       <c r="J6" s="1">
         <v>50</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1:E4 F1:I6">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E6">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J6">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
+      <formula>LEN(TRIM(J1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K6">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(J1))=0</formula>
+      <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Npc.xlsx
+++ b/Table/Npc.xlsx
@@ -482,56 +482,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -863,7 +814,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,10 +959,10 @@
         <v>10001</v>
       </c>
       <c r="H4" s="1">
-        <v>10001</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1">
-        <v>10001</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="1">
         <v>50</v>
@@ -1043,10 +994,10 @@
         <v>10010</v>
       </c>
       <c r="H5" s="1">
-        <v>10010</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1">
-        <v>10010</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="1">
         <v>50</v>
@@ -1078,10 +1029,10 @@
         <v>10020</v>
       </c>
       <c r="H6" s="1">
-        <v>10021</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="1">
-        <v>10022</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="1">
         <v>50</v>
@@ -1093,22 +1044,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1:E4 F1:I6">
-    <cfRule type="containsBlanks" dxfId="10" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E6">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J6">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(J1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K6">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
